--- a/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
+++ b/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbattcock/Documents/MIMI/code/India_analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{942FF471-D78F-8443-BEAA-F4A475389E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66682C8-AA35-7C47-B5CF-67B8EB3590A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="food_codes" sheetId="1" r:id="rId1"/>
     <sheet name="Color code" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2099,18 +2098,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B169" sqref="A169:XFD183"/>
+      <selection pane="bottomRight" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4254,7 +4254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
+++ b/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbattcock/Documents/MIMI/code/India_analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66682C8-AA35-7C47-B5CF-67B8EB3590A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF082A67-5B42-3F4E-8CD9-2AB67DCA2A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="14280" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="food_codes" sheetId="1" r:id="rId1"/>
@@ -659,9 +659,6 @@
     <t>F006</t>
   </si>
   <si>
-    <t>D058</t>
-  </si>
-  <si>
     <t>D076</t>
   </si>
   <si>
@@ -975,9 +972,6 @@
   </si>
   <si>
     <t>Potato</t>
-  </si>
-  <si>
-    <t>Onion stalks</t>
   </si>
   <si>
     <t>Tomato ripe</t>
@@ -1157,6 +1151,12 @@
   <si>
     <t xml:space="preserve">Items from the NSSO data that I haven't been able to match to codes from the Indian 2017 food composition tables as there are multiple options that they could map to (other cereals; fish, e.g).
 </t>
+  </si>
+  <si>
+    <t>G018</t>
+  </si>
+  <si>
+    <t>Onion, small</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1712,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1720,13 +1720,7 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1740,7 +1734,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2098,17 +2105,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
@@ -2121,1702 +2125,1936 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" t="s">
-        <v>274</v>
       </c>
       <c r="E1" t="s">
         <v>184</v>
       </c>
       <c r="F1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G2" t="s">
         <v>367</v>
       </c>
-      <c r="G1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17">
-      <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17">
+        <v>329</v>
+      </c>
+      <c r="F3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>84</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17">
+        <v>330</v>
+      </c>
+      <c r="F4">
+        <v>0.115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>186</v>
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>343</v>
+      </c>
+      <c r="F5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="8">
-        <v>106</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>333</v>
+      </c>
+      <c r="F6">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1">
+      <c r="A7">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>278</v>
+        <v>128</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>278</v>
+        <v>129</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>188</v>
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>296</v>
+      </c>
+      <c r="F10">
+        <v>1.05</v>
+      </c>
+      <c r="G10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
       <c r="A11">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
       <c r="A12">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>190</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1">
-      <c r="A13" s="8">
-        <v>113</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="17">
+      <c r="A13">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" ht="17">
       <c r="A14">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>106</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1">
+      <c r="A21">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="9" customFormat="1">
+      <c r="A22" s="6">
+        <v>113</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
         <v>115</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+      <c r="D24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C25" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>117</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>118</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>122</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9">
+        <v>129</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1">
+      <c r="A32">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1">
-      <c r="A21" s="8">
-        <v>122</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="11" customFormat="1">
-      <c r="A22" s="11">
-        <v>129</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>139</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1">
+      <c r="A33">
         <v>140</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C33" t="s">
         <v>201</v>
       </c>
-      <c r="D24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D33" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>145</v>
-      </c>
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>146</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>147</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1">
-      <c r="A32" s="8">
-        <v>148</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="8">
-        <v>150</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1">
-      <c r="A35" s="8">
-        <v>152</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="11" customFormat="1">
-      <c r="A36" s="11">
-        <v>159</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1">
+      <c r="A35">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1">
+      <c r="A36">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>297</v>
-      </c>
-      <c r="F37">
-        <v>1.05</v>
-      </c>
-      <c r="G37" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="8">
-        <v>161</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1">
+      <c r="A38">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" s="13" customFormat="1">
       <c r="A39">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>298</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
-      </c>
-      <c r="D40" t="s">
-        <v>299</v>
+        <v>256</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41">
-        <v>164</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" t="s">
-        <v>300</v>
-      </c>
+      <c r="A41" s="6">
+        <v>148</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42">
-        <v>165</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="9" customFormat="1">
-      <c r="A43" s="9">
-        <v>166</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1">
-      <c r="A44" s="8">
-        <v>167</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="11" customFormat="1">
-      <c r="A45" s="11">
-        <v>169</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1">
-      <c r="A46" s="8">
-        <v>170</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>45</v>
+      <c r="A42" s="6">
+        <v>150</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1">
+      <c r="A43">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" s="6" customFormat="1">
+      <c r="A44" s="6">
+        <v>152</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="9" customFormat="1">
+      <c r="A45" s="9">
+        <v>159</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1">
+      <c r="A46" s="6">
+        <v>161</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47">
-        <v>171</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D47" t="s">
-        <v>304</v>
-      </c>
+      <c r="A47" s="13">
+        <v>162</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51">
-        <v>175</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>264</v>
-      </c>
-      <c r="D51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="11" customFormat="1">
-      <c r="A52" s="11">
-        <v>179</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="A51" s="7">
+        <v>166</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" s="9" customFormat="1">
+      <c r="A52" s="6">
+        <v>167</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53">
-        <v>180</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="A53" s="9">
+        <v>169</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54">
-        <v>181</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" t="s">
-        <v>308</v>
-      </c>
+      <c r="A54" s="6">
+        <v>170</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>270</v>
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="6" customFormat="1">
+      <c r="A58">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1">
+      <c r="A59">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" t="s">
+        <v>305</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="9">
+        <v>179</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" s="6" customFormat="1">
+      <c r="A61">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" s="6" customFormat="1">
+      <c r="A62">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" s="6" customFormat="1">
+      <c r="A63">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" t="s">
+        <v>308</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" s="6" customFormat="1">
+      <c r="A64">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" s="6" customFormat="1">
+      <c r="A65">
         <v>184</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
-        <v>268</v>
-      </c>
-      <c r="D57" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="8" customFormat="1">
-      <c r="A58" s="8">
+      <c r="C65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" s="6" customFormat="1">
+      <c r="A66" s="6">
         <v>185</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="11" customFormat="1">
-      <c r="A59" s="11">
+    <row r="67" spans="1:7" s="9" customFormat="1">
+      <c r="A67" s="9">
         <v>189</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B67" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>190</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="68" spans="1:7">
+      <c r="A68" s="6">
+        <v>191</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6">
+        <v>192</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6">
+        <v>193</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="6">
+        <v>194</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="6">
+        <v>195</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="6">
+        <v>196</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="9">
+        <v>199</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>204</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
         <v>205</v>
       </c>
-      <c r="D60" t="s">
-        <v>312</v>
-      </c>
-      <c r="F60">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1">
-      <c r="A61" s="8">
-        <v>191</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>192</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>206</v>
-      </c>
-      <c r="D62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>194</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>195</v>
-      </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="8" customFormat="1">
-      <c r="A66" s="8">
-        <v>196</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="11" customFormat="1">
-      <c r="A67" s="11">
-        <v>199</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>200</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>201</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>202</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>203</v>
-      </c>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>204</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>215</v>
-      </c>
-      <c r="D72" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>205</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>206</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>216</v>
-      </c>
-      <c r="D74" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>207</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>208</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>210</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>211</v>
-      </c>
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>212</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>213</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" t="s">
-        <v>266</v>
-      </c>
-      <c r="D80" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>330</v>
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
-      </c>
-      <c r="F83">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G83" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1">
-      <c r="A84" s="8">
-        <v>217</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="11" customFormat="1">
-      <c r="A85" s="11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="6" customFormat="1">
+      <c r="A84">
+        <v>210</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" s="9" customFormat="1">
+      <c r="A85">
+        <v>211</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="D85" t="s">
+        <v>325</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
+        <v>212</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
         <v>220</v>
       </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>224</v>
-      </c>
       <c r="D86" t="s">
-        <v>332</v>
-      </c>
-      <c r="F86">
-        <v>0.115</v>
-      </c>
-      <c r="G86" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D87" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="D88" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" t="s">
-        <v>335</v>
-      </c>
-      <c r="F89">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="G89" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="9" customFormat="1">
-      <c r="A90" s="9">
-        <v>224</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="9" customFormat="1">
+        <v>80</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="7" customFormat="1">
+      <c r="A90" s="6">
+        <v>217</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" s="7" customFormat="1">
       <c r="A91" s="9">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>337</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
+        <v>222</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="7">
+        <v>224</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" t="s">
-        <v>239</v>
-      </c>
-      <c r="D93" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
+      <c r="D94" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="7">
+        <v>225</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B94" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" t="s">
-        <v>344</v>
-      </c>
-      <c r="D94" t="s">
-        <v>345</v>
-      </c>
-      <c r="F94">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>230</v>
-      </c>
-      <c r="B95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>231</v>
-      </c>
-      <c r="D95" t="s">
-        <v>340</v>
-      </c>
+      <c r="D95" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
+        <v>226</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>230</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="6" customFormat="1">
+      <c r="A99">
         <v>231</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C99" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" t="s">
+        <v>339</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>232</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>233</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>232</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>232</v>
-      </c>
-      <c r="D97" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
+    <row r="102" spans="1:7">
+      <c r="A102" s="6">
+        <v>234</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" s="6" customFormat="1">
+      <c r="A103">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" t="s">
-        <v>233</v>
-      </c>
-      <c r="D98" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="8" customFormat="1">
-      <c r="A99" s="8">
+      <c r="D103" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:7" s="9" customFormat="1">
+      <c r="A104">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D104" t="s">
+        <v>346</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>237</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" t="s">
         <v>234</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
+      <c r="D105" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="6">
+        <v>238</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="9">
+        <v>239</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>240</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>241</v>
+      </c>
+      <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B100" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
+      <c r="D109" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="6" customFormat="1">
+      <c r="A110">
+        <v>242</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
         <v>236</v>
       </c>
-      <c r="B101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D101" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
+      <c r="D110" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>243</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
         <v>237</v>
       </c>
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" t="s">
-        <v>235</v>
-      </c>
-      <c r="D102" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="8" customFormat="1">
-      <c r="A103" s="8">
-        <v>238</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="11" customFormat="1">
-      <c r="A104" s="11">
+      <c r="D111" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="6" customFormat="1">
+      <c r="A112">
+        <v>244</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
         <v>239</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>240</v>
-      </c>
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C105" t="s">
-        <v>228</v>
-      </c>
-      <c r="D105" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106">
-        <v>241</v>
-      </c>
-      <c r="B106" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>242</v>
-      </c>
-      <c r="B107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="D112" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>243</v>
-      </c>
-      <c r="B108" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>244</v>
-      </c>
-      <c r="B109" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" t="s">
-        <v>240</v>
-      </c>
-      <c r="D109" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="8" customFormat="1">
-      <c r="A110" s="8">
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="1:7" s="9" customFormat="1">
+      <c r="A113" s="6">
         <v>245</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B113" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>246</v>
-      </c>
-      <c r="B111" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" t="s">
-        <v>241</v>
-      </c>
-      <c r="D111" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="8" customFormat="1">
-      <c r="A112" s="8">
-        <v>247</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="11" customFormat="1">
-      <c r="A113" s="11">
-        <v>249</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>355</v>
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115">
-        <v>251</v>
-      </c>
-      <c r="B115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C115" t="s">
-        <v>243</v>
-      </c>
-      <c r="D115" t="s">
-        <v>356</v>
-      </c>
+      <c r="A115" s="6">
+        <v>247</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116">
-        <v>252</v>
-      </c>
-      <c r="B116" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D116" t="s">
-        <v>357</v>
-      </c>
+      <c r="A116" s="9">
+        <v>249</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
-      </c>
-      <c r="C117" t="s">
-        <v>245</v>
-      </c>
-      <c r="D117" t="s">
-        <v>358</v>
+        <v>112</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D118" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" t="s">
-        <v>247</v>
+        <v>114</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>361</v>
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121" t="s">
+        <v>245</v>
+      </c>
+      <c r="D121" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="6" customFormat="1">
+      <c r="A122">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" t="s">
+        <v>358</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="1:7" s="6" customFormat="1">
+      <c r="A123">
+        <v>256</v>
+      </c>
+      <c r="B123" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="1:7" s="6" customFormat="1">
+      <c r="A124">
         <v>257</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>119</v>
       </c>
-      <c r="C121" t="s">
-        <v>249</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C124" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="1:7" s="9" customFormat="1">
+      <c r="A125" s="6">
+        <v>258</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="6">
+        <v>260</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="6">
+        <v>261</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="9">
+        <v>269</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>271</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>272</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="8" customFormat="1">
-      <c r="A122" s="8">
-        <v>258</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="8" customFormat="1">
-      <c r="A123" s="8">
-        <v>260</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="8" customFormat="1">
-      <c r="A124" s="8">
-        <v>261</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="11" customFormat="1">
-      <c r="A125" s="11">
-        <v>269</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>270</v>
-      </c>
-      <c r="B126" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" t="s">
-        <v>250</v>
-      </c>
-      <c r="D126" t="s">
-        <v>363</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>271</v>
-      </c>
-      <c r="B127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>272</v>
-      </c>
-      <c r="B128" t="s">
-        <v>126</v>
-      </c>
-      <c r="C128" t="s">
-        <v>251</v>
-      </c>
-      <c r="D128" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
+    <row r="131" spans="1:4">
+      <c r="A131">
         <v>273</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>274</v>
-      </c>
-      <c r="B130" t="s">
-        <v>128</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>275</v>
-      </c>
-      <c r="B131" t="s">
-        <v>129</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>276</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" t="s">
         <v>252</v>
       </c>
-      <c r="D132" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="8" customFormat="1">
-      <c r="A133" s="8">
+    </row>
+    <row r="133" spans="1:4" s="6" customFormat="1">
+      <c r="A133" s="6">
         <v>277</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>279</v>
       </c>
@@ -3824,61 +4062,61 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="8" customFormat="1">
-      <c r="A135" s="8">
+    <row r="135" spans="1:4" s="6" customFormat="1">
+      <c r="A135" s="6">
         <v>280</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="8" customFormat="1">
-      <c r="A136" s="8">
+    <row r="136" spans="1:4" s="6" customFormat="1">
+      <c r="A136" s="6">
         <v>281</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="8" customFormat="1">
-      <c r="A137" s="8">
+    <row r="137" spans="1:4" s="6" customFormat="1">
+      <c r="A137" s="6">
         <v>282</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="8" customFormat="1">
-      <c r="A138" s="8">
+    <row r="138" spans="1:4" s="6" customFormat="1">
+      <c r="A138" s="6">
         <v>283</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A139" s="8">
+      <c r="C138" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A139" s="6">
         <v>284</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="11" customFormat="1">
-      <c r="A140" s="11">
+    <row r="140" spans="1:4" s="9" customFormat="1">
+      <c r="A140" s="9">
         <v>289</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>290</v>
       </c>
@@ -3886,21 +4124,21 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
+        <v>253</v>
+      </c>
+      <c r="D141" t="s">
         <v>254</v>
       </c>
-      <c r="D141" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="8" customFormat="1">
-      <c r="A142" s="8">
+    </row>
+    <row r="142" spans="1:4" s="6" customFormat="1">
+      <c r="A142" s="6">
         <v>291</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>292</v>
       </c>
@@ -3908,344 +4146,347 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D143" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="8" customFormat="1">
-      <c r="A144" s="8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="6" customFormat="1">
+      <c r="A144" s="6">
         <v>293</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="8" customFormat="1">
-      <c r="A145" s="8">
+    <row r="145" spans="1:2" s="6" customFormat="1">
+      <c r="A145" s="6">
         <v>294</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="8" customFormat="1">
-      <c r="A146" s="8">
+    <row r="146" spans="1:2" s="6" customFormat="1">
+      <c r="A146" s="6">
         <v>295</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="8" customFormat="1">
-      <c r="A147" s="8">
+    <row r="147" spans="1:2" s="6" customFormat="1">
+      <c r="A147" s="6">
         <v>296</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="11" customFormat="1">
-      <c r="A148" s="11">
+    <row r="148" spans="1:2" s="9" customFormat="1">
+      <c r="A148" s="9">
         <v>299</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="14" customFormat="1">
-      <c r="A149" s="14">
+    <row r="149" spans="1:2" s="12" customFormat="1">
+      <c r="A149" s="12">
         <v>300</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2" s="14" customFormat="1">
-      <c r="A150" s="14">
+    <row r="150" spans="1:2" s="12" customFormat="1">
+      <c r="A150" s="12">
         <v>301</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" s="14" customFormat="1">
-      <c r="A151" s="14">
+    <row r="151" spans="1:2" s="12" customFormat="1">
+      <c r="A151" s="12">
         <v>302</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="11" customFormat="1">
-      <c r="A152" s="11">
+    <row r="152" spans="1:2" s="9" customFormat="1">
+      <c r="A152" s="9">
         <v>309</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" s="14" customFormat="1">
-      <c r="A153" s="14">
+    <row r="153" spans="1:2" s="12" customFormat="1">
+      <c r="A153" s="12">
         <v>310</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="14" customFormat="1">
-      <c r="A154" s="14">
+    <row r="154" spans="1:2" s="12" customFormat="1">
+      <c r="A154" s="12">
         <v>311</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="14" customFormat="1">
-      <c r="A155" s="14">
+    <row r="155" spans="1:2" s="12" customFormat="1">
+      <c r="A155" s="12">
         <v>312</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="14" customFormat="1">
-      <c r="A156" s="14">
+    <row r="156" spans="1:2" s="12" customFormat="1">
+      <c r="A156" s="12">
         <v>313</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="14" customFormat="1">
-      <c r="A157" s="14">
+    <row r="157" spans="1:2" s="12" customFormat="1">
+      <c r="A157" s="12">
         <v>314</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:2" s="14" customFormat="1">
-      <c r="A158" s="14">
+    <row r="158" spans="1:2" s="12" customFormat="1">
+      <c r="A158" s="12">
         <v>315</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:2" s="14" customFormat="1">
-      <c r="A159" s="14">
+    <row r="159" spans="1:2" s="12" customFormat="1">
+      <c r="A159" s="12">
         <v>316</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="14" customFormat="1">
-      <c r="A160" s="14">
+    <row r="160" spans="1:2" s="12" customFormat="1">
+      <c r="A160" s="12">
         <v>317</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="11" customFormat="1">
-      <c r="A161" s="11">
+    <row r="161" spans="1:3" s="9" customFormat="1">
+      <c r="A161" s="9">
         <v>319</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="14" customFormat="1">
-      <c r="A162" s="14">
+    <row r="162" spans="1:3" s="12" customFormat="1">
+      <c r="A162" s="12">
         <v>320</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="14" customFormat="1">
-      <c r="A163" s="14">
+    <row r="163" spans="1:3" s="6" customFormat="1">
+      <c r="A163" s="6">
         <v>321</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="14" customFormat="1">
-      <c r="A164" s="14">
+      <c r="C163" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="6" customFormat="1">
+      <c r="A164" s="6">
         <v>322</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="14" customFormat="1">
-      <c r="A165" s="14">
+    <row r="165" spans="1:3" s="6" customFormat="1">
+      <c r="A165" s="6">
         <v>323</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="14" customFormat="1">
-      <c r="A166" s="14">
+    <row r="166" spans="1:3" s="6" customFormat="1">
+      <c r="A166" s="6">
         <v>324</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="14" customFormat="1">
-      <c r="A167" s="14">
+    <row r="167" spans="1:3" s="12" customFormat="1">
+      <c r="A167" s="12">
         <v>325</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="11" customFormat="1">
-      <c r="A168" s="11">
+    <row r="168" spans="1:3" s="9" customFormat="1">
+      <c r="A168" s="9">
         <v>329</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="14" customFormat="1">
-      <c r="A169" s="14">
+    <row r="169" spans="1:3" s="12" customFormat="1">
+      <c r="A169" s="12">
         <v>330</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="14" customFormat="1">
-      <c r="A170" s="14">
+    <row r="170" spans="1:3" s="12" customFormat="1">
+      <c r="A170" s="12">
         <v>331</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="14" customFormat="1">
-      <c r="A171" s="14">
+    <row r="171" spans="1:3" s="12" customFormat="1">
+      <c r="A171" s="12">
         <v>332</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="14" customFormat="1">
-      <c r="A172" s="14">
+    <row r="172" spans="1:3" s="12" customFormat="1">
+      <c r="A172" s="12">
         <v>333</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="14" customFormat="1">
-      <c r="A173" s="14">
+    <row r="173" spans="1:3" s="12" customFormat="1">
+      <c r="A173" s="12">
         <v>334</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="14" customFormat="1">
-      <c r="A174" s="14">
+    <row r="174" spans="1:3" s="12" customFormat="1">
+      <c r="A174" s="12">
         <v>335</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="14" customFormat="1">
-      <c r="A175" s="14">
+    <row r="175" spans="1:3" s="12" customFormat="1">
+      <c r="A175" s="12">
         <v>336</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="14" customFormat="1">
-      <c r="A176" s="14">
+    <row r="176" spans="1:3" s="12" customFormat="1">
+      <c r="A176" s="12">
         <v>337</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="14" customFormat="1">
-      <c r="A177" s="14">
+    <row r="177" spans="1:2" s="12" customFormat="1">
+      <c r="A177" s="12">
         <v>338</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="14" customFormat="1">
-      <c r="A178" s="14">
+    <row r="178" spans="1:2" s="12" customFormat="1">
+      <c r="A178" s="12">
         <v>340</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:2" s="14" customFormat="1">
-      <c r="A179" s="14">
+    <row r="179" spans="1:2" s="12" customFormat="1">
+      <c r="A179" s="12">
         <v>341</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:2" s="14" customFormat="1">
-      <c r="A180" s="14">
+    <row r="180" spans="1:2" s="12" customFormat="1">
+      <c r="A180" s="12">
         <v>342</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:2" s="14" customFormat="1">
-      <c r="A181" s="14">
+    <row r="181" spans="1:2" s="12" customFormat="1">
+      <c r="A181" s="12">
         <v>343</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:2" s="14" customFormat="1">
-      <c r="A182" s="14">
+    <row r="182" spans="1:2" s="12" customFormat="1">
+      <c r="A182" s="12">
         <v>344</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:2" s="14" customFormat="1">
-      <c r="A183" s="14">
+    <row r="183" spans="1:2" s="12" customFormat="1">
+      <c r="A183" s="12">
         <v>345</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:2" s="11" customFormat="1">
-      <c r="A184" s="11">
+    <row r="184" spans="1:2" s="9" customFormat="1">
+      <c r="A184" s="9">
         <v>349</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="9" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G184">
+    <sortCondition ref="F1:F184"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4265,37 +4506,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="102">
+      <c r="A2" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="102">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:2" ht="119">
+      <c r="A3" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="119">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
+++ b/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbattcock/Documents/MIMI/code/India_analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF082A67-5B42-3F4E-8CD9-2AB67DCA2A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230999FA-2FA1-064B-A7C5-E070914DB157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="14280" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="food_codes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="372">
   <si>
     <t>unique(Item_Code)</t>
   </si>
@@ -614,9 +614,6 @@
     <t>A010</t>
   </si>
   <si>
-    <t>A016, A017</t>
-  </si>
-  <si>
     <t>F015</t>
   </si>
   <si>
@@ -641,18 +638,6 @@
     <t>M001</t>
   </si>
   <si>
-    <t>O001</t>
-  </si>
-  <si>
-    <t>O025</t>
-  </si>
-  <si>
-    <t>O048</t>
-  </si>
-  <si>
-    <t>N002</t>
-  </si>
-  <si>
     <t>F002</t>
   </si>
   <si>
@@ -957,18 +942,6 @@
   </si>
   <si>
     <t>Egg, hen</t>
-  </si>
-  <si>
-    <t>Goat meat (lean)</t>
-  </si>
-  <si>
-    <t>Beef muscle</t>
-  </si>
-  <si>
-    <t>Pork, muscle</t>
-  </si>
-  <si>
-    <t>Chicken, poultry, thigh, skinless</t>
   </si>
   <si>
     <t>Potato</t>
@@ -1157,6 +1130,16 @@
   </si>
   <si>
     <t>Onion, small</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>all oils in FCT have same values</t>
+  </si>
+  <si>
+    <t>A016
+A017</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1695,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1734,20 +1717,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2103,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2117,7 +2097,7 @@
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2125,82 +2105,85 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E1" t="s">
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>205</v>
+      <c r="C2" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F2">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>222</v>
+      <c r="C3" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F3">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>223</v>
+      <c r="C4" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F4">
         <v>0.115</v>
       </c>
       <c r="G4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>228</v>
       </c>
@@ -2208,39 +2191,39 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F5">
         <v>0.14000000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>226</v>
+      <c r="C6" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F6">
         <v>0.90500000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1">
       <c r="A7">
         <v>270</v>
       </c>
@@ -2248,44 +2231,44 @@
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E7"/>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>160</v>
       </c>
@@ -2293,19 +2276,19 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F10">
         <v>1.05</v>
       </c>
       <c r="G10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2316,13 +2299,13 @@
         <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:8" ht="17">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2333,30 +2316,30 @@
         <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="17">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="17">
       <c r="A13">
         <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:8" ht="17">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2367,10 +2350,10 @@
         <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2381,17 +2364,17 @@
         <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>106</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2404,11 +2387,11 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2422,7 +2405,7 @@
         <v>187</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2436,7 +2419,7 @@
         <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2450,7 +2433,7 @@
         <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1">
@@ -2460,11 +2443,11 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -2494,7 +2477,7 @@
         <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2504,11 +2487,11 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2518,11 +2501,11 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2536,7 +2519,7 @@
         <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2546,14 +2529,14 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25">
       <c r="A28">
         <v>120</v>
       </c>
@@ -2561,10 +2544,10 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2574,11 +2557,11 @@
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2614,11 +2597,11 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>198</v>
+      <c r="C32" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -2632,10 +2615,10 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -2649,10 +2632,10 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1">
@@ -2663,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -2680,10 +2663,10 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -2697,10 +2680,10 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1">
@@ -2708,19 +2691,19 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" s="13" customFormat="1">
+    <row r="39" spans="1:7" s="6" customFormat="1">
       <c r="A39">
         <v>146</v>
       </c>
@@ -2728,10 +2711,10 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -2745,10 +2728,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2764,18 +2747,19 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="6">
+    <row r="42" spans="1:7" s="19" customFormat="1">
+      <c r="A42" s="19">
         <v>150</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="C42" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1">
       <c r="A43">
@@ -2815,21 +2799,21 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13">
+      <c r="A47" s="6">
         <v>162</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="C47" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
@@ -2839,10 +2823,10 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2853,10 +2837,10 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2867,10 +2851,10 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2881,10 +2865,10 @@
         <v>42</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -2937,10 +2921,10 @@
         <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2951,10 +2935,10 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2965,10 +2949,10 @@
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="6" customFormat="1">
@@ -2992,10 +2976,10 @@
         <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -3022,10 +3006,10 @@
         <v>52</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -3039,10 +3023,10 @@
         <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -3056,10 +3040,10 @@
         <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
@@ -3073,16 +3057,16 @@
         <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1">
+    <row r="65" spans="1:8" s="6" customFormat="1">
       <c r="A65">
         <v>184</v>
       </c>
@@ -3090,24 +3074,33 @@
         <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1">
+    <row r="66" spans="1:8" s="6" customFormat="1">
       <c r="A66" s="6">
         <v>185</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" s="9" customFormat="1">
+      <c r="C66" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1">
       <c r="A67" s="9">
         <v>189</v>
       </c>
@@ -3115,7 +3108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="6">
         <v>191</v>
       </c>
@@ -3128,75 +3121,59 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="6">
         <v>192</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>312</v>
-      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="6">
         <v>193</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>313</v>
-      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="6">
         <v>194</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>314</v>
-      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="6">
         <v>195</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="6">
         <v>196</v>
       </c>
@@ -3209,7 +3186,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="9">
         <v>199</v>
       </c>
@@ -3222,7 +3199,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>200</v>
       </c>
@@ -3230,13 +3207,13 @@
         <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>201</v>
       </c>
@@ -3244,13 +3221,13 @@
         <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>202</v>
       </c>
@@ -3258,13 +3235,13 @@
         <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>203</v>
       </c>
@@ -3272,13 +3249,13 @@
         <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>204</v>
       </c>
@@ -3286,13 +3263,13 @@
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D79" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>205</v>
       </c>
@@ -3300,10 +3277,10 @@
         <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3314,10 +3291,10 @@
         <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3328,10 +3305,10 @@
         <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3342,10 +3319,10 @@
         <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="6" customFormat="1">
@@ -3356,10 +3333,10 @@
         <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
@@ -3373,10 +3350,10 @@
         <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
@@ -3390,10 +3367,10 @@
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3404,10 +3381,10 @@
         <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3418,10 +3395,10 @@
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3432,10 +3409,10 @@
         <v>80</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="7" customFormat="1">
@@ -3472,10 +3449,10 @@
         <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D92" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3486,10 +3463,10 @@
         <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D93" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3500,10 +3477,10 @@
         <v>88</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -3517,10 +3494,10 @@
         <v>89</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -3534,10 +3511,10 @@
         <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D96" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3548,10 +3525,10 @@
         <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3562,10 +3539,10 @@
         <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D98" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1">
@@ -3576,10 +3553,10 @@
         <v>94</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D99" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -3593,10 +3570,10 @@
         <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3607,10 +3584,10 @@
         <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3634,10 +3611,10 @@
         <v>98</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
@@ -3651,10 +3628,10 @@
         <v>99</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
@@ -3668,10 +3645,10 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3708,10 +3685,10 @@
         <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D108" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3722,10 +3699,10 @@
         <v>104</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="6" customFormat="1">
@@ -3736,10 +3713,10 @@
         <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D110" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
@@ -3753,10 +3730,10 @@
         <v>106</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D111" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="6" customFormat="1">
@@ -3767,10 +3744,10 @@
         <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D112" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
@@ -3797,10 +3774,10 @@
         <v>109</v>
       </c>
       <c r="C114" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3837,10 +3814,10 @@
         <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3851,10 +3828,10 @@
         <v>113</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D118" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3865,10 +3842,10 @@
         <v>114</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3879,10 +3856,10 @@
         <v>115</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D120" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3893,10 +3870,10 @@
         <v>116</v>
       </c>
       <c r="C121" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="6" customFormat="1">
@@ -3907,10 +3884,10 @@
         <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D122" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E122"/>
       <c r="F122"/>
@@ -3924,10 +3901,10 @@
         <v>118</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E123"/>
       <c r="F123"/>
@@ -3941,10 +3918,10 @@
         <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
@@ -4018,10 +3995,10 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D130" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4040,10 +4017,10 @@
         <v>130</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="6" customFormat="1">
@@ -4094,10 +4071,10 @@
         <v>136</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
@@ -4124,10 +4101,10 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D141" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="6" customFormat="1">
@@ -4146,10 +4123,10 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D143" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1">
@@ -4311,8 +4288,8 @@
       <c r="B163" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="14" t="s">
-        <v>271</v>
+      <c r="C163" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="6" customFormat="1">
@@ -4507,36 +4484,36 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="102">
       <c r="A2" s="9" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="119">
       <c r="A3" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
+++ b/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbattcock/Documents/MIMI/code/India_analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230999FA-2FA1-064B-A7C5-E070914DB157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D3F58-8CDC-FB41-8F04-0E7CF4981F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="371">
   <si>
     <t>unique(Item_Code)</t>
   </si>
@@ -1041,9 +1041,6 @@
   </si>
   <si>
     <t>Groundnut</t>
-  </si>
-  <si>
-    <t>Pine seed (pinus sp.)</t>
   </si>
   <si>
     <t>Cashewnut</t>
@@ -1138,8 +1135,7 @@
     <t>all oils in FCT have same values</t>
   </si>
   <si>
-    <t>A016
-A017</t>
+    <t>Dates, dried</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1691,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1727,7 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2114,13 +2109,13 @@
         <v>184</v>
       </c>
       <c r="F1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" t="s">
         <v>356</v>
       </c>
-      <c r="G1" t="s">
-        <v>357</v>
-      </c>
       <c r="H1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2140,7 +2135,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2160,7 +2155,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2180,7 +2175,7 @@
         <v>0.115</v>
       </c>
       <c r="G4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2200,7 +2195,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2220,7 +2215,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1">
@@ -2234,14 +2229,14 @@
         <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E7"/>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2285,7 +2280,7 @@
         <v>1.05</v>
       </c>
       <c r="G10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
@@ -2536,16 +2531,14 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>371</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
         <v>281</v>
       </c>
@@ -2747,17 +2740,17 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" s="19" customFormat="1">
-      <c r="A42" s="19">
+    <row r="42" spans="1:7">
+      <c r="A42">
         <v>150</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2962,8 +2955,12 @@
       <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
@@ -3097,7 +3094,7 @@
         <v>305</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="9" customFormat="1">
@@ -3221,10 +3218,10 @@
         <v>68</v>
       </c>
       <c r="C76" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" t="s">
         <v>367</v>
-      </c>
-      <c r="D76" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3716,7 +3713,7 @@
         <v>231</v>
       </c>
       <c r="D110" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="E110"/>
       <c r="F110"/>
@@ -3733,7 +3730,7 @@
         <v>232</v>
       </c>
       <c r="D111" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="6" customFormat="1">
@@ -3747,7 +3744,7 @@
         <v>234</v>
       </c>
       <c r="D112" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E112"/>
       <c r="F112"/>
@@ -3777,7 +3774,7 @@
         <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3817,7 +3814,7 @@
         <v>236</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3831,7 +3828,7 @@
         <v>237</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3845,7 +3842,7 @@
         <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3859,7 +3856,7 @@
         <v>239</v>
       </c>
       <c r="D120" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3873,7 +3870,7 @@
         <v>240</v>
       </c>
       <c r="D121" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:7" s="6" customFormat="1">
@@ -3887,7 +3884,7 @@
         <v>241</v>
       </c>
       <c r="D122" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E122"/>
       <c r="F122"/>
@@ -3904,7 +3901,7 @@
         <v>242</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E123"/>
       <c r="F123"/>
@@ -3921,7 +3918,7 @@
         <v>243</v>
       </c>
       <c r="D124" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
@@ -3986,6 +3983,12 @@
       <c r="B129" t="s">
         <v>125</v>
       </c>
+      <c r="C129" t="s">
+        <v>244</v>
+      </c>
+      <c r="D129" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
@@ -3998,7 +4001,7 @@
         <v>245</v>
       </c>
       <c r="D130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4008,6 +4011,12 @@
       <c r="B131" t="s">
         <v>127</v>
       </c>
+      <c r="C131" t="s">
+        <v>245</v>
+      </c>
+      <c r="D131" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
@@ -4074,7 +4083,7 @@
         <v>266</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1">
@@ -4126,7 +4135,7 @@
         <v>250</v>
       </c>
       <c r="D143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1">
@@ -4484,36 +4493,36 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="102">
       <c r="A2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="119">
       <c r="A3" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
+++ b/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbattcock/Documents/MIMI/code/India_analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D3F58-8CDC-FB41-8F04-0E7CF4981F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696E37A-5761-4540-A17A-081190909414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="372">
   <si>
     <t>unique(Item_Code)</t>
   </si>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t>Dates, dried</t>
+  </si>
+  <si>
+    <t>B017</t>
   </si>
 </sst>
 </file>
@@ -2080,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2704,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s">
         <v>287</v>

--- a/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
+++ b/India_analysis/data/raw/food_codes_nsso_to_ifct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbattcock/Documents/MIMI/code/India_analysis/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696E37A-5761-4540-A17A-081190909414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECCEB0-A59A-A549-BDA7-09F0EC918C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="371">
   <si>
     <t>unique(Item_Code)</t>
   </si>
@@ -1136,9 +1136,6 @@
   </si>
   <si>
     <t>Dates, dried</t>
-  </si>
-  <si>
-    <t>B017</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="119" zoomScaleNormal="400" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -2707,7 +2704,7 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="D39" t="s">
         <v>287</v>
